--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp8a-Tgfbr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Bmp8a</t>
   </si>
   <si>
     <t>Tgfbr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H2">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.4927655384686</v>
+        <v>23.433081</v>
       </c>
       <c r="N2">
-        <v>16.4927655384686</v>
+        <v>70.29924299999999</v>
       </c>
       <c r="O2">
-        <v>0.1343057039925842</v>
+        <v>0.173071867147068</v>
       </c>
       <c r="P2">
-        <v>0.1343057039925842</v>
+        <v>0.1775303340800033</v>
       </c>
       <c r="Q2">
-        <v>4.636500761196861</v>
+        <v>9.777124984115998</v>
       </c>
       <c r="R2">
-        <v>4.636500761196861</v>
+        <v>87.99412485704399</v>
       </c>
       <c r="S2">
-        <v>0.1343057039925842</v>
+        <v>0.08088973134810862</v>
       </c>
       <c r="T2">
-        <v>0.1343057039925842</v>
+        <v>0.08476139014246002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H3">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3059136984668</v>
+        <v>41.43333666666666</v>
       </c>
       <c r="N3">
-        <v>40.3059136984668</v>
+        <v>124.30001</v>
       </c>
       <c r="O3">
-        <v>0.3282235536369342</v>
+        <v>0.3060180152594135</v>
       </c>
       <c r="P3">
-        <v>0.3282235536369342</v>
+        <v>0.3139012791567009</v>
       </c>
       <c r="Q3">
-        <v>11.33093168079006</v>
+        <v>17.28747965745333</v>
       </c>
       <c r="R3">
-        <v>11.33093168079006</v>
+        <v>155.58731691708</v>
       </c>
       <c r="S3">
-        <v>0.3282235536369342</v>
+        <v>0.1430256427578774</v>
       </c>
       <c r="T3">
-        <v>0.3282235536369342</v>
+        <v>0.1498713384768835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H4">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.2922522327936</v>
+        <v>30.91984733333334</v>
       </c>
       <c r="N4">
-        <v>27.2922522327936</v>
+        <v>92.75954200000001</v>
       </c>
       <c r="O4">
-        <v>0.2222492729384229</v>
+        <v>0.228367567622981</v>
       </c>
       <c r="P4">
-        <v>0.2222492729384229</v>
+        <v>0.2342504951350344</v>
       </c>
       <c r="Q4">
-        <v>7.672488155911414</v>
+        <v>12.90087342197067</v>
       </c>
       <c r="R4">
-        <v>7.672488155911414</v>
+        <v>116.107860797736</v>
       </c>
       <c r="S4">
-        <v>0.2222492729384229</v>
+        <v>0.1067336448040216</v>
       </c>
       <c r="T4">
-        <v>0.2222492729384229</v>
+        <v>0.1118422815576821</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.281123305268752</v>
+        <v>0.417236</v>
       </c>
       <c r="H5">
-        <v>0.281123305268752</v>
+        <v>1.251708</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.4673765452554602</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.4774473645966479</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.5273345884835</v>
+        <v>29.40795633333333</v>
       </c>
       <c r="N5">
-        <v>28.5273345884835</v>
+        <v>88.22386900000001</v>
       </c>
       <c r="O5">
-        <v>0.2323069315453344</v>
+        <v>0.2172010548501686</v>
       </c>
       <c r="P5">
-        <v>0.2323069315453344</v>
+        <v>0.2227963242420754</v>
       </c>
       <c r="Q5">
-        <v>8.019698590022076</v>
+        <v>12.27005806869467</v>
       </c>
       <c r="R5">
-        <v>8.019698590022076</v>
+        <v>110.430522618252</v>
       </c>
       <c r="S5">
-        <v>0.2323069315453344</v>
+        <v>0.1015146786417135</v>
       </c>
       <c r="T5">
-        <v>0.2323069315453344</v>
+        <v>0.1063735178511991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,1301 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.417236</v>
+      </c>
+      <c r="H6">
+        <v>1.251708</v>
+      </c>
+      <c r="I6">
+        <v>0.4673765452554602</v>
+      </c>
+      <c r="J6">
+        <v>0.4774473645966479</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.2008685</v>
+      </c>
+      <c r="N6">
+        <v>20.401737</v>
+      </c>
+      <c r="O6">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P6">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q6">
+        <v>4.256169569466</v>
+      </c>
+      <c r="R6">
+        <v>25.537017416796</v>
+      </c>
+      <c r="S6">
+        <v>0.03521284770373916</v>
+      </c>
+      <c r="T6">
+        <v>0.02459883656842311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.236933</v>
+      </c>
+      <c r="H7">
+        <v>0.710799</v>
+      </c>
+      <c r="I7">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J7">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.433081</v>
+      </c>
+      <c r="N7">
+        <v>70.29924299999999</v>
+      </c>
+      <c r="O7">
+        <v>0.173071867147068</v>
+      </c>
+      <c r="P7">
+        <v>0.1775303340800033</v>
+      </c>
+      <c r="Q7">
+        <v>5.552070180572999</v>
+      </c>
+      <c r="R7">
+        <v>49.96863162515699</v>
+      </c>
+      <c r="S7">
+        <v>0.04593430748425691</v>
+      </c>
+      <c r="T7">
+        <v>0.04813288031383552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.236933</v>
+      </c>
+      <c r="H8">
+        <v>0.710799</v>
+      </c>
+      <c r="I8">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J8">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>41.43333666666666</v>
+      </c>
+      <c r="N8">
+        <v>124.30001</v>
+      </c>
+      <c r="O8">
+        <v>0.3060180152594135</v>
+      </c>
+      <c r="P8">
+        <v>0.3139012791567009</v>
+      </c>
+      <c r="Q8">
+        <v>9.816924756443331</v>
+      </c>
+      <c r="R8">
+        <v>88.35232280798998</v>
+      </c>
+      <c r="S8">
+        <v>0.08121900942284981</v>
+      </c>
+      <c r="T8">
+        <v>0.08510642859039831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.281123305268752</v>
-      </c>
-      <c r="H6">
-        <v>0.281123305268752</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>10.1819207408475</v>
-      </c>
-      <c r="N6">
-        <v>10.1819207408475</v>
-      </c>
-      <c r="O6">
-        <v>0.08291453788672445</v>
-      </c>
-      <c r="P6">
-        <v>0.08291453788672445</v>
-      </c>
-      <c r="Q6">
-        <v>2.862375212651509</v>
-      </c>
-      <c r="R6">
-        <v>2.862375212651509</v>
-      </c>
-      <c r="S6">
-        <v>0.08291453788672445</v>
-      </c>
-      <c r="T6">
-        <v>0.08291453788672445</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.236933</v>
+      </c>
+      <c r="H9">
+        <v>0.710799</v>
+      </c>
+      <c r="I9">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J9">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>30.91984733333334</v>
+      </c>
+      <c r="N9">
+        <v>92.75954200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.228367567622981</v>
+      </c>
+      <c r="P9">
+        <v>0.2342504951350344</v>
+      </c>
+      <c r="Q9">
+        <v>7.325932188228667</v>
+      </c>
+      <c r="R9">
+        <v>65.93338969405801</v>
+      </c>
+      <c r="S9">
+        <v>0.06061011673094181</v>
+      </c>
+      <c r="T9">
+        <v>0.0635111239114225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.236933</v>
+      </c>
+      <c r="H10">
+        <v>0.710799</v>
+      </c>
+      <c r="I10">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J10">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>29.40795633333333</v>
+      </c>
+      <c r="N10">
+        <v>88.22386900000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2172010548501686</v>
+      </c>
+      <c r="P10">
+        <v>0.2227963242420754</v>
+      </c>
+      <c r="Q10">
+        <v>6.967715317925666</v>
+      </c>
+      <c r="R10">
+        <v>62.709437861331</v>
+      </c>
+      <c r="S10">
+        <v>0.05764645753151</v>
+      </c>
+      <c r="T10">
+        <v>0.06040561386131149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.236933</v>
+      </c>
+      <c r="H11">
+        <v>0.710799</v>
+      </c>
+      <c r="I11">
+        <v>0.2654059740698596</v>
+      </c>
+      <c r="J11">
+        <v>0.2711248224888973</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.2008685</v>
+      </c>
+      <c r="N11">
+        <v>20.401737</v>
+      </c>
+      <c r="O11">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P11">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q11">
+        <v>2.416922376310499</v>
+      </c>
+      <c r="R11">
+        <v>14.501534257863</v>
+      </c>
+      <c r="S11">
+        <v>0.0199960829003011</v>
+      </c>
+      <c r="T11">
+        <v>0.01396877581192944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J12">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>23.433081</v>
+      </c>
+      <c r="N12">
+        <v>70.29924299999999</v>
+      </c>
+      <c r="O12">
+        <v>0.173071867147068</v>
+      </c>
+      <c r="P12">
+        <v>0.1775303340800033</v>
+      </c>
+      <c r="Q12">
+        <v>2.797152201781</v>
+      </c>
+      <c r="R12">
+        <v>25.17436981602899</v>
+      </c>
+      <c r="S12">
+        <v>0.0231418633299074</v>
+      </c>
+      <c r="T12">
+        <v>0.02424951194223042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J13">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>41.43333666666666</v>
+      </c>
+      <c r="N13">
+        <v>124.30001</v>
+      </c>
+      <c r="O13">
+        <v>0.3060180152594135</v>
+      </c>
+      <c r="P13">
+        <v>0.3139012791567009</v>
+      </c>
+      <c r="Q13">
+        <v>4.945800720114443</v>
+      </c>
+      <c r="R13">
+        <v>44.51220648102999</v>
+      </c>
+      <c r="S13">
+        <v>0.04091841847181944</v>
+      </c>
+      <c r="T13">
+        <v>0.0428769137231586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J14">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.91984733333334</v>
+      </c>
+      <c r="N14">
+        <v>92.75954200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.228367567622981</v>
+      </c>
+      <c r="P14">
+        <v>0.2342504951350344</v>
+      </c>
+      <c r="Q14">
+        <v>3.690830029869555</v>
+      </c>
+      <c r="R14">
+        <v>33.217470268826</v>
+      </c>
+      <c r="S14">
+        <v>0.03053558689826583</v>
+      </c>
+      <c r="T14">
+        <v>0.03199712437137943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J15">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.40795633333333</v>
+      </c>
+      <c r="N15">
+        <v>88.22386900000001</v>
+      </c>
+      <c r="O15">
+        <v>0.2172010548501686</v>
+      </c>
+      <c r="P15">
+        <v>0.2227963242420754</v>
+      </c>
+      <c r="Q15">
+        <v>3.510359128945222</v>
+      </c>
+      <c r="R15">
+        <v>31.593232160507</v>
+      </c>
+      <c r="S15">
+        <v>0.02904248512083771</v>
+      </c>
+      <c r="T15">
+        <v>0.03043255764369003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1193676666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.3581029999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1337124496972265</v>
+      </c>
+      <c r="J16">
+        <v>0.1365936253536395</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.2008685</v>
+      </c>
+      <c r="N16">
+        <v>20.401737</v>
+      </c>
+      <c r="O16">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P16">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q16">
+        <v>1.2176538708185</v>
+      </c>
+      <c r="R16">
+        <v>7.305923224910998</v>
+      </c>
+      <c r="S16">
+        <v>0.01007409587639617</v>
+      </c>
+      <c r="T16">
+        <v>0.00703751767318098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.062692</v>
+      </c>
+      <c r="H17">
+        <v>0.188076</v>
+      </c>
+      <c r="I17">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J17">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.433081</v>
+      </c>
+      <c r="N17">
+        <v>70.29924299999999</v>
+      </c>
+      <c r="O17">
+        <v>0.173071867147068</v>
+      </c>
+      <c r="P17">
+        <v>0.1775303340800033</v>
+      </c>
+      <c r="Q17">
+        <v>1.469066714052</v>
+      </c>
+      <c r="R17">
+        <v>13.221600426468</v>
+      </c>
+      <c r="S17">
+        <v>0.01215412629225576</v>
+      </c>
+      <c r="T17">
+        <v>0.01273586428498764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.062692</v>
+      </c>
+      <c r="H18">
+        <v>0.188076</v>
+      </c>
+      <c r="I18">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J18">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>41.43333666666666</v>
+      </c>
+      <c r="N18">
+        <v>124.30001</v>
+      </c>
+      <c r="O18">
+        <v>0.3060180152594135</v>
+      </c>
+      <c r="P18">
+        <v>0.3139012791567009</v>
+      </c>
+      <c r="Q18">
+        <v>2.597538742306666</v>
+      </c>
+      <c r="R18">
+        <v>23.37784868076</v>
+      </c>
+      <c r="S18">
+        <v>0.02149038816347786</v>
+      </c>
+      <c r="T18">
+        <v>0.02251899153427024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.062692</v>
+      </c>
+      <c r="H19">
+        <v>0.188076</v>
+      </c>
+      <c r="I19">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J19">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.91984733333334</v>
+      </c>
+      <c r="N19">
+        <v>92.75954200000001</v>
+      </c>
+      <c r="O19">
+        <v>0.228367567622981</v>
+      </c>
+      <c r="P19">
+        <v>0.2342504951350344</v>
+      </c>
+      <c r="Q19">
+        <v>1.938427069021333</v>
+      </c>
+      <c r="R19">
+        <v>17.445843621192</v>
+      </c>
+      <c r="S19">
+        <v>0.01603731619527969</v>
+      </c>
+      <c r="T19">
+        <v>0.01680491691851662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.062692</v>
+      </c>
+      <c r="H20">
+        <v>0.188076</v>
+      </c>
+      <c r="I20">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J20">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>29.40795633333333</v>
+      </c>
+      <c r="N20">
+        <v>88.22386900000001</v>
+      </c>
+      <c r="O20">
+        <v>0.2172010548501686</v>
+      </c>
+      <c r="P20">
+        <v>0.2227963242420754</v>
+      </c>
+      <c r="Q20">
+        <v>1.843643598449333</v>
+      </c>
+      <c r="R20">
+        <v>16.592792386044</v>
+      </c>
+      <c r="S20">
+        <v>0.01525313787258603</v>
+      </c>
+      <c r="T20">
+        <v>0.01598320514319804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.062692</v>
+      </c>
+      <c r="H21">
+        <v>0.188076</v>
+      </c>
+      <c r="I21">
+        <v>0.07022589224121434</v>
+      </c>
+      <c r="J21">
+        <v>0.0717390881450619</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.2008685</v>
+      </c>
+      <c r="N21">
+        <v>20.401737</v>
+      </c>
+      <c r="O21">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P21">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q21">
+        <v>0.6395128480019999</v>
+      </c>
+      <c r="R21">
+        <v>3.837077088011999</v>
+      </c>
+      <c r="S21">
+        <v>0.005290923717615007</v>
+      </c>
+      <c r="T21">
+        <v>0.003696110264089343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.0564905</v>
+      </c>
+      <c r="H22">
+        <v>0.112981</v>
+      </c>
+      <c r="I22">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J22">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>23.433081</v>
+      </c>
+      <c r="N22">
+        <v>70.29924299999999</v>
+      </c>
+      <c r="O22">
+        <v>0.173071867147068</v>
+      </c>
+      <c r="P22">
+        <v>0.1775303340800033</v>
+      </c>
+      <c r="Q22">
+        <v>1.3237464622305</v>
+      </c>
+      <c r="R22">
+        <v>7.942478773382999</v>
+      </c>
+      <c r="S22">
+        <v>0.0109518386925393</v>
+      </c>
+      <c r="T22">
+        <v>0.007650687396489656</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.0564905</v>
+      </c>
+      <c r="H23">
+        <v>0.112981</v>
+      </c>
+      <c r="I23">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J23">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>41.43333666666666</v>
+      </c>
+      <c r="N23">
+        <v>124.30001</v>
+      </c>
+      <c r="O23">
+        <v>0.3060180152594135</v>
+      </c>
+      <c r="P23">
+        <v>0.3139012791567009</v>
+      </c>
+      <c r="Q23">
+        <v>2.340589904968333</v>
+      </c>
+      <c r="R23">
+        <v>14.04353942981</v>
+      </c>
+      <c r="S23">
+        <v>0.01936455644338905</v>
+      </c>
+      <c r="T23">
+        <v>0.01352760683199019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.0564905</v>
+      </c>
+      <c r="H24">
+        <v>0.112981</v>
+      </c>
+      <c r="I24">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J24">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.91984733333334</v>
+      </c>
+      <c r="N24">
+        <v>92.75954200000001</v>
+      </c>
+      <c r="O24">
+        <v>0.228367567622981</v>
+      </c>
+      <c r="P24">
+        <v>0.2342504951350344</v>
+      </c>
+      <c r="Q24">
+        <v>1.746677635783667</v>
+      </c>
+      <c r="R24">
+        <v>10.480065814702</v>
+      </c>
+      <c r="S24">
+        <v>0.01445090299447214</v>
+      </c>
+      <c r="T24">
+        <v>0.01009504837603377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.0564905</v>
+      </c>
+      <c r="H25">
+        <v>0.112981</v>
+      </c>
+      <c r="I25">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J25">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.40795633333333</v>
+      </c>
+      <c r="N25">
+        <v>88.22386900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.2172010548501686</v>
+      </c>
+      <c r="P25">
+        <v>0.2227963242420754</v>
+      </c>
+      <c r="Q25">
+        <v>1.661270157248167</v>
+      </c>
+      <c r="R25">
+        <v>9.967620943489001</v>
+      </c>
+      <c r="S25">
+        <v>0.01374429568352136</v>
+      </c>
+      <c r="T25">
+        <v>0.00960142974267667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.0564905</v>
+      </c>
+      <c r="H26">
+        <v>0.112981</v>
+      </c>
+      <c r="I26">
+        <v>0.06327913873623937</v>
+      </c>
+      <c r="J26">
+        <v>0.04309509941575341</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.2008685</v>
+      </c>
+      <c r="N26">
+        <v>20.401737</v>
+      </c>
+      <c r="O26">
+        <v>0.07534149512036896</v>
+      </c>
+      <c r="P26">
+        <v>0.05152156738618599</v>
+      </c>
+      <c r="Q26">
+        <v>0.5762521619992499</v>
+      </c>
+      <c r="R26">
+        <v>2.305008647997</v>
+      </c>
+      <c r="S26">
+        <v>0.004767544922317529</v>
+      </c>
+      <c r="T26">
+        <v>0.002220327068563124</v>
       </c>
     </row>
   </sheetData>
